--- a/수도권지하철노선 데이터 추가.xlsx
+++ b/수도권지하철노선 데이터 추가.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2C000013\Downloads\Subway_Tk-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F1C2A-2101-45C7-83ED-DAC4A49ECDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAE2612-715B-4EC9-A36E-814AE7ED3DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4650" yWindow="2835" windowWidth="21600" windowHeight="12720" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="3870" windowWidth="21600" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="22" r:id="rId1"/>
@@ -4493,8 +4493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711E105-CD6C-45BF-9B69-9B566092C688}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4870,10 +4870,10 @@
         <v>110</v>
       </c>
       <c r="B34">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C34">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5154,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A3A9F1-9ED6-4B58-A4B4-0B6B8E5AC176}">
   <dimension ref="A2:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C3">
         <v>413</v>
@@ -5859,6 +5859,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7609,8 +7610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7824,11 +7825,11 @@
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="3">
-        <v>838</v>
-      </c>
-      <c r="C19" s="2">
-        <v>412</v>
+      <c r="B19">
+        <v>825</v>
+      </c>
+      <c r="C19">
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8221,7 +8222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D997289-D8EA-426C-87B5-2EDC731474A7}">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -10004,8 +10005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B3C4B6-0EF0-44CD-A585-F50FA819F402}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10362,7 +10363,7 @@
         <v>110</v>
       </c>
       <c r="B32">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C32">
         <v>413</v>
